--- a/INTLINE/data/134/DEUSTATIS/Retail price index.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Retail price index.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="68">
   <si>
     <t>Index of retail prices: Germany, months, value added tax,
 economic activities</t>
@@ -217,7 +217,7 @@
     <t>Before 2005, including retail sale of automotive fuel.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:54:02</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:33:00</t>
   </si>
 </sst>
 </file>
@@ -9810,14 +9810,14 @@
       <c r="NL8" t="n" s="10">
         <v>112.1</v>
       </c>
-      <c r="NM8" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NN8" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NO8" t="s" s="10">
-        <v>53</v>
+      <c r="NM8" t="n" s="10">
+        <v>114.6</v>
+      </c>
+      <c r="NN8" t="n" s="10">
+        <v>115.6</v>
+      </c>
+      <c r="NO8" t="n" s="10">
+        <v>117.1</v>
       </c>
       <c r="NP8" t="s" s="10">
         <v>53</v>
@@ -10970,14 +10970,14 @@
       <c r="NL9" t="n" s="10">
         <v>114.5</v>
       </c>
-      <c r="NM9" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NN9" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NO9" t="s" s="10">
-        <v>53</v>
+      <c r="NM9" t="n" s="10">
+        <v>115.7</v>
+      </c>
+      <c r="NN9" t="n" s="10">
+        <v>118.7</v>
+      </c>
+      <c r="NO9" t="n" s="10">
+        <v>121.4</v>
       </c>
       <c r="NP9" t="s" s="10">
         <v>53</v>
@@ -12130,14 +12130,14 @@
       <c r="NL10" t="n" s="10">
         <v>108.3</v>
       </c>
-      <c r="NM10" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NN10" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NO10" t="s" s="10">
-        <v>53</v>
+      <c r="NM10" t="n" s="10">
+        <v>108.9</v>
+      </c>
+      <c r="NN10" t="n" s="10">
+        <v>109.0</v>
+      </c>
+      <c r="NO10" t="n" s="10">
+        <v>109.3</v>
       </c>
       <c r="NP10" t="s" s="10">
         <v>53</v>
@@ -13290,14 +13290,14 @@
       <c r="NL11" t="n" s="10">
         <v>107.6</v>
       </c>
-      <c r="NM11" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NN11" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NO11" t="s" s="10">
-        <v>53</v>
+      <c r="NM11" t="n" s="10">
+        <v>108.3</v>
+      </c>
+      <c r="NN11" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="NO11" t="n" s="10">
+        <v>108.8</v>
       </c>
       <c r="NP11" t="s" s="10">
         <v>53</v>
@@ -13404,7 +13404,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:54:07&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:33:05&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Retail price index.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Retail price index.xlsx
@@ -217,7 +217,7 @@
     <t>Before 2005, including retail sale of automotive fuel.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:33:00</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:44:19</t>
   </si>
 </sst>
 </file>
@@ -13404,7 +13404,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:33:05&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:44:24&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>